--- a/src/api-guides/ERP-integration/standard-accounting-extract-expense.xlsx
+++ b/src/api-guides/ERP-integration/standard-accounting-extract-expense.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2AF032-2E89-46B3-9B7C-87305128A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C47B411-097C-4C7C-9EA7-3B6612782718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="1084">
   <si>
     <t>Sno</t>
   </si>
@@ -15519,15 +15519,14 @@
     <t>Merchant Tax ID is populated by the following (in order of precedence): E-Receipt v4 with tax data, Company card transaction, and ExpenseIt OCR transaction</t>
   </si>
   <si>
-    <t>Effective January 2023
-FI equivalent is merchantTaxId</t>
+    <t>FI equivalent is merchantTaxId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15575,12 +15574,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -15851,8 +15844,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17054,9 +17047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFABD68D-42AD-4DC3-AF17-E19509DC73AF}">
   <dimension ref="A1:L445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I387" sqref="I387"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29712,7 +29705,7 @@
       <c r="K386" s="18"/>
       <c r="L386" s="5"/>
     </row>
-    <row r="387" spans="1:12" ht="68" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
         <v>385</v>
       </c>
@@ -29741,9 +29734,11 @@
         <v>1083</v>
       </c>
       <c r="J387" s="47" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K387" s="18" t="s">
         <v>1082</v>
       </c>
-      <c r="K387" s="18"/>
       <c r="L387" s="5"/>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.35">
